--- a/csv/model/CIMS_FIC/formula_CIMS_FIC_SK.xlsx
+++ b/csv/model/CIMS_FIC/formula_CIMS_FIC_SK.xlsx
@@ -2,22 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\CIMS_FIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AA459A9-5FC7-4C70-99FA-1027225E7081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1EB7827-E642-40A0-91C7-501FD4F6FC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1800" windowWidth="51840" windowHeight="21120" xr2:uid="{61C5E1E7-0728-40F0-8A5E-9945EFF889F9}"/>
+    <workbookView xWindow="34965" yWindow="3495" windowWidth="17250" windowHeight="8865" xr2:uid="{870E0100-DE03-463B-87E4-978E32B99F0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -104,10 +101,10 @@
     <t>$</t>
   </si>
   <si>
-    <t>CIMS.CAN.SK.Natural Gas Extraction.Natural Gas.Exploration and Production.Conventional Production</t>
-  </si>
-  <si>
-    <t>Natural Gas Extraction</t>
+    <t>CIMS.CAN.SK.Natural Gas Production.Natural Gas.Exploration and Production.Conventional Production</t>
+  </si>
+  <si>
+    <t>Natural Gas Production</t>
   </si>
   <si>
     <t>Conventional Production</t>
@@ -122,7 +119,7 @@
     <t>Raw NG aggresive LDAR</t>
   </si>
   <si>
-    <t>CIMS.CAN.SK.Natural Gas Extraction.Natural Gas.Processing.Processing Plants</t>
+    <t>CIMS.CAN.SK.Natural Gas Production.Natural Gas.Processing.Processing Plants</t>
   </si>
   <si>
     <t>Processing Plants</t>
@@ -134,7 +131,7 @@
     <t>NG Eff</t>
   </si>
   <si>
-    <t>CIMS.CAN.SK.Natural Gas Extraction.Direct Heat</t>
+    <t>CIMS.CAN.SK.Natural Gas Production.Direct Heat</t>
   </si>
   <si>
     <t>Direct Heat</t>
@@ -146,7 +143,7 @@
     <t>Boilers improved thermal eff CCS</t>
   </si>
   <si>
-    <t>CIMS.CAN.SK.Natural Gas Extraction.Direct Drive Small</t>
+    <t>CIMS.CAN.SK.Natural Gas Production.Direct Drive Small</t>
   </si>
   <si>
     <t>Direct Drive Small</t>
@@ -1084,19 +1081,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="BC"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1415,7 +1399,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63990C23-D69A-4ED3-94B4-B716ACFC2096}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76AEE6E-CC03-42E7-9201-7CAB06132664}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2425,49 +2410,48 @@
       <c r="L16" t="s">
         <v>20</v>
       </c>
-      <c r="M16" t="e">
-        <f>[1]BC!$M$29</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N16" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O16" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P16" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q16" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="R16" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S16" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T16" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U16" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V16" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W16" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="M16">
+        <v>400000000</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
@@ -2495,49 +2479,48 @@
       <c r="L17" t="s">
         <v>20</v>
       </c>
-      <c r="M17" t="e">
-        <f>[1]BC!$M$30</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N17" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O17" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P17" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q17" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="R17" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S17" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T17" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U17" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V17" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W17" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="M17">
+        <v>400000000</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
@@ -2650,7 +2633,7 @@
         <v>-100000000</v>
       </c>
       <c r="R19">
-        <f t="shared" ref="R19:W27" si="1">Q19</f>
+        <f t="shared" ref="R19:W22" si="1">Q19</f>
         <v>-100000000</v>
       </c>
       <c r="S19">

--- a/csv/model/CIMS_FIC/formula_CIMS_FIC_SK.xlsx
+++ b/csv/model/CIMS_FIC/formula_CIMS_FIC_SK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\CIMS_FIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75AA5E3A-5827-44E6-9150-4A94E5ACB06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83341218-8C11-4F58-BC85-4AFD0BE3D225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{01459235-4C96-4B58-B0ED-CCA99CC767FA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{10E941D2-5031-4C96-8305-9A5BF8F82908}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
     <t>$</t>
   </si>
   <si>
-    <t>CIMS.CAN.SK.Natural Gas Production.Natural Gas Supply.Processing.Processing Plants</t>
+    <t>CIMS.CAN.SK.Natural Gas Production.Supply.Processing.Processing Plants</t>
   </si>
   <si>
     <t>Natural Gas Production</t>
@@ -113,7 +113,7 @@
     <t>Processing</t>
   </si>
   <si>
-    <t>CIMS.CAN.SK.Natural Gas Production.Natural Gas Supply.Transmission</t>
+    <t>CIMS.CAN.SK.Natural Gas Production.Supply.Transmission</t>
   </si>
   <si>
     <t>Transmission</t>
@@ -122,7 +122,7 @@
     <t>Transmission HFO</t>
   </si>
   <si>
-    <t>CIMS.CAN.SK.Natural Gas Production.Natural Gas Supply.Direct Drive Small</t>
+    <t>CIMS.CAN.SK.Natural Gas Production.Supply.Direct Drive Small</t>
   </si>
   <si>
     <t>Direct Drive Small</t>
@@ -137,7 +137,7 @@
     <t>Reciprocating compressor electric</t>
   </si>
   <si>
-    <t>CIMS.CAN.SK.Natural Gas Production.Natural Gas Supply.Direct Drive Large</t>
+    <t>CIMS.CAN.SK.Natural Gas Production.Supply.Direct Drive Large</t>
   </si>
   <si>
     <t>Direct Drive Large</t>
@@ -152,7 +152,7 @@
     <t>Eff AC motor 500 hp</t>
   </si>
   <si>
-    <t>CIMS.CAN.SK.Natural Gas Production.Natural Gas Supply.Flaring</t>
+    <t>CIMS.CAN.SK.Natural Gas Production.Supply.Flaring</t>
   </si>
   <si>
     <t>Flaring</t>
@@ -161,7 +161,7 @@
     <t>No CCS</t>
   </si>
   <si>
-    <t>CIMS.CAN.SK.Natural Gas Production.Natural Gas Supply.Venting.Point Venting</t>
+    <t>CIMS.CAN.SK.Natural Gas Production.Supply.Venting.Point Venting</t>
   </si>
   <si>
     <t>Point Venting</t>
@@ -182,7 +182,7 @@
     <t>Ethanol</t>
   </si>
   <si>
-    <t>CIMS.CAN.SK.Natural Gas Production.Natural Gas Supply.Extraction.Off road transport</t>
+    <t>CIMS.CAN.SK.Natural Gas Production.Supply.Extraction.Off road transport</t>
   </si>
   <si>
     <t>Off road transport</t>
@@ -1636,7 +1636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEBDC63-27E9-42B0-BC22-F13BC319E021}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E139A4E-582D-44AB-8981-44E3786C49E2}">
   <dimension ref="A1:X288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
